--- a/data/trans_bre/P25_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22,05%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,95</t>
+          <t>-1,59; 7,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,58</t>
+          <t>-3,64; 4,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,26</t>
+          <t>-4,42; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,68</t>
+          <t>-5,55; 5,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 51,53</t>
+          <t>-4,27; 5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 28,17</t>
+          <t>-4,03; 4,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 37,67</t>
+          <t>-7,49; 44,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 23,24</t>
+          <t>-17,64; 28,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 26,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 27,03</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 26,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 26,65</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,73</t>
+          <t>-0,74; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,63</t>
+          <t>-3,11; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,64</t>
+          <t>-1,35; 8,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 10,01</t>
+          <t>-5,01; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 77,01</t>
+          <t>-5,77; 10,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 46,33</t>
+          <t>-6,45; 8,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 49,58</t>
+          <t>-4,63; 74,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 67,43</t>
+          <t>-19,22; 46,01</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 58,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,24; 33,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 67,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 51,61</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>44,42%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 20,84</t>
+          <t>-3,42; 17,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 13,87</t>
+          <t>-6,4; 13,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 10,66</t>
+          <t>-10,65; 10,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-5,15; 20,53</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; 142,02</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 69,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 47,93</t>
+          <t>-13,09; 111,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-20,65; 63,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-32,16; 53,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 143,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>27,12%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>2,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,27</t>
+          <t>0,85; 7,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,91</t>
+          <t>-1,58; 4,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,8</t>
+          <t>-1,59; 4,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,55</t>
+          <t>-2,62; 4,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 53,46</t>
+          <t>-3,48; 4,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 25,02</t>
+          <t>-3,11; 4,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 25,97</t>
+          <t>4,33; 45,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 24,4</t>
+          <t>-8,46; 26,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 27,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,86; 25,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,53; 22,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 21,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.87164879885463</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2779842716836595</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4829906994802152</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3173700711263439</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.0416994295326989</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5666577040277648</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1962684917367941</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01529858553511087</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.02336581747172607</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.01441029823838304</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.001933780440808654</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.02761159184316053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 7,91</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 4,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 4,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 5,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,27; 5,04</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 4,88</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 44,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-17,64; 28,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-18,96; 26,65</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,36; 27,03</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-18,13; 26,07</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 26,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.408262444224621</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.05263880163804</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.353733692848516</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.908943883788154</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.274596318313666</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3.722421763985559</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.06202117868885892</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1965975962182875</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1878654595764258</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2376487934582148</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1812997569645522</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1610031791217099</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.368543112153365</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.398834102486675</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.522783791294235</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.819376629590687</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.037646291332155</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.879381094474666</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4942168819594095</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2806930306881988</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2975234120969004</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2553808845267446</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.2607382323245606</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2737937942001024</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>27,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>19,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,92%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 8,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 5,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 8,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 5,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 10,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 8,25</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 74,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 46,01</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 58,97</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,24; 33,41</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-26,59; 67,04</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-27,23; 51,61</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.088929653720191</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.604610099988829</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.010910879118387</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8417545767725576</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.833309574165309</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.620985214692657</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2938428859982833</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1146877607144118</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1944419621099765</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.04539554764406461</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.09923936522451164</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.02997795316957929</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>37,49%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,56%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>33,67%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4383491500217301</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.658290957505564</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.545596014847814</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.852472916083101</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.765473019224545</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-6.437968212995311</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.03843654459880258</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1656689176698665</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.08962263344455473</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.226333800281176</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2658630586325969</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.282404050139318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 17,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 13,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 10,84</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 20,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-13,09; 111,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,65; 63,41</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-32,16; 53,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 143,17</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.377178804449649</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.003046910847507</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.98794831240755</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.780283561747609</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.16661657938459</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.237615976284319</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8046237693988404</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4918549944984932</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5772622609050707</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3515479815199002</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6704048115243266</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.5047572739808078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>23,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,32%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.838277679870476</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.433085408147046</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7871486806653394</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.153610419150966</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.3865803468436194</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1324362844568692</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.02969318159592898</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3469723762894816</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 7,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 4,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 4,88</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 4,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 4,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 4,25</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 45,5</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 26,84</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 27,59</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 25,03</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 22,72</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 21,33</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.963052855019678</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.02970505964181</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.36387918456829</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.976474682067198</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1525651969809371</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.21678985303366</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3151985028156652</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1911127402224236</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.97796908350895</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.81594082201624</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.00898527798748</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.30047249713398</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.23053500829067</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6177909557797863</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.551595712080842</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.472197511985058</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.472340428431226</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.157971384709949</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.524028613717221</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.051983629190084</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.502507201124483</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.574143513590597</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2558858641249346</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06637109180834437</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.07890433146988549</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.05143435179572712</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.02413008012216739</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.02791289548687877</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9825131152969978</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.641439232429348</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.50429864342099</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.668245689231898</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.484948231012309</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.967111481447945</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.05509655628381693</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08598757591028229</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.07287872312994738</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1192318326689533</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1553070908929956</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1320708257561584</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.675381617222302</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.348152008579612</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.14074544654709</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.621597168964533</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.237611533393181</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>4.348314637887333</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4928256925084623</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2675643406301084</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.289008376949514</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2468635396948954</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2271638548732008</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2195390509387428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
